--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1342769.336079583</v>
+        <v>1336724.061240859</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.8287060776394</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T11" t="n">
         <v>211.7511202595727</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.947225795045305</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.8151578977944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>82.77412627072023</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>101.9886660735736</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>8.854161465986799</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>145.2555273384648</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.49786220527203</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.24377379397109</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1615,67 +1615,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>295.7859910763773</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>304.5301358581251</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>115.319892856474</v>
+      </c>
+      <c r="T14" t="n">
+        <v>211.7511202595727</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>335.8151578977945</v>
       </c>
-      <c r="G14" t="n">
+      <c r="W14" t="n">
         <v>335.8151578977945</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>117.6962971812177</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>215.5654210980321</v>
       </c>
       <c r="X15" t="n">
-        <v>113.6444380360954</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.8885407115386</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>165.5965581459434</v>
       </c>
       <c r="H16" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>10.57531402815373</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T16" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>42.76466843941785</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>335.8151578977945</v>
+        <v>84.03487081680457</v>
       </c>
       <c r="X17" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>133.8797738581206</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I18" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>29.07025665260757</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -1991,7 +1991,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.89033441503624</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>183.7971125400421</v>
@@ -2058,19 +2058,19 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5312244651214</v>
+        <v>10.91808808821293</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="F20" t="n">
-        <v>279.8581749607544</v>
+        <v>42.76466843941784</v>
       </c>
       <c r="G20" t="n">
-        <v>335.8151578977945</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="H20" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>53.16006395033763</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>170.5265796494932</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8860038244843</v>
+        <v>169.3607573742899</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2228,7 +2228,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.2936057125653</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>39.96111897738992</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.7971125400421</v>
+        <v>77.5982118538298</v>
       </c>
       <c r="T22" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>295.7859910763774</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="F23" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>295.7859910763774</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>92.25638575650464</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>46.78298723063415</v>
       </c>
       <c r="H24" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>207.8860038244843</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.2685155042058</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>26.80650638355529</v>
       </c>
       <c r="S25" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>180.4660982199034</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="E26" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="F26" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>335.8151578977945</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>84.03487081680457</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>111.7531246463575</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U27" t="n">
         <v>207.8860038244843</v>
@@ -2696,7 +2696,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>224.7353806271238</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -2715,19 +2715,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>118.7174916976595</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>224.2533168224985</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>204.0609539123541</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>335.8151578977945</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>298.5829100630798</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0213226369596</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>79.99691627413253</v>
       </c>
     </row>
     <row r="30">
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>57.3801636852501</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>39.65136654184404</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>170.5265796494932</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -2939,7 +2939,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -2961,13 +2961,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5965581459434</v>
+        <v>61.95080168214911</v>
       </c>
       <c r="H31" t="n">
-        <v>39.41199547458049</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>30.87480686646693</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>247.3321173651152</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>53.16006395033763</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>335.8151578977945</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.71590469029682</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I33" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T33" t="n">
         <v>170.5265796494932</v>
@@ -3167,13 +3167,13 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>144.9856795799142</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>72.55820052207922</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>12.24284187933185</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -3255,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>325.4197623868748</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>263.2599334807382</v>
       </c>
       <c r="I35" t="n">
-        <v>53.16006395033763</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>253.0213226369596</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>335.8151578977945</v>
-      </c>
-      <c r="W35" t="n">
-        <v>335.8151578977945</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>77.31023326881171</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T36" t="n">
-        <v>46.80346144206655</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I37" t="n">
         <v>102.4439188072657</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T37" t="n">
-        <v>142.7001527270091</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5312244651214</v>
+        <v>162.3216981625266</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3489,7 +3489,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>180.4660982199034</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>335.8151578977945</v>
@@ -3517,10 +3517,10 @@
         <v>335.8151578977945</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>295.7859910763773</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.3435168496427</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>27.81338259626589</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I39" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3647,7 +3647,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>102.4439188072657</v>
+        <v>26.80650638355533</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U40" t="n">
-        <v>241.5711572353761</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>295.7859910763774</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>84.03487081680457</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>117.6962971812177</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>39.02326852204656</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>49.0792150310307</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3900,7 +3900,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -3909,13 +3909,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>43.3296224269463</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>215.5057017212158</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="C44" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>335.8151578977945</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>295.7859910763774</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>335.8151578977945</v>
+        <v>88.74106105588015</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>111.7531246463575</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T45" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>207.8860038244843</v>
@@ -4118,7 +4118,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>110.1945737475836</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.75056673588284</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4152,7 +4152,7 @@
         <v>165.5965581459434</v>
       </c>
       <c r="H46" t="n">
-        <v>1.457574977510756</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U46" t="n">
         <v>282.5312244651214</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="C11" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="D11" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="E11" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="F11" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="G11" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="H11" t="n">
         <v>26.86521263182356</v>
@@ -5044,16 +5044,16 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K11" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L11" t="n">
-        <v>412.9225820627734</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M11" t="n">
         <v>642.525089106458</v>
       </c>
       <c r="N11" t="n">
-        <v>878.8417802023812</v>
+        <v>878.8417802023815</v>
       </c>
       <c r="O11" t="n">
         <v>1093.321010641007</v>
@@ -5068,25 +5068,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S11" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T11" t="n">
-        <v>1129.370611126963</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U11" t="n">
-        <v>873.7935175542765</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="V11" t="n">
-        <v>873.7935175542765</v>
+        <v>1006.878572085024</v>
       </c>
       <c r="W11" t="n">
-        <v>873.7935175542765</v>
+        <v>1006.878572085024</v>
       </c>
       <c r="X11" t="n">
-        <v>534.5862873544841</v>
+        <v>667.671341885232</v>
       </c>
       <c r="Y11" t="n">
-        <v>195.3790571546917</v>
+        <v>667.671341885232</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>726.7892990756902</v>
+        <v>425.9283860210057</v>
       </c>
       <c r="C12" t="n">
-        <v>576.1350686357824</v>
+        <v>275.2741555810979</v>
       </c>
       <c r="D12" t="n">
-        <v>492.5248400794994</v>
+        <v>275.2741555810979</v>
       </c>
       <c r="E12" t="n">
-        <v>356.0783491903871</v>
+        <v>138.8276646919856</v>
       </c>
       <c r="F12" t="n">
-        <v>231.6465430735189</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="G12" t="n">
-        <v>112.7613944056222</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H12" t="n">
         <v>35.80881007221426</v>
@@ -5120,22 +5120,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J12" t="n">
-        <v>62.14562883852682</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K12" t="n">
-        <v>394.6026351573433</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L12" t="n">
-        <v>555.419983408184</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M12" t="n">
-        <v>755.6682078646087</v>
+        <v>638.1250198416258</v>
       </c>
       <c r="N12" t="n">
-        <v>970.5820261604422</v>
+        <v>970.5820261604424</v>
       </c>
       <c r="O12" t="n">
-        <v>1152.743316199521</v>
+        <v>1152.743316199522</v>
       </c>
       <c r="P12" t="n">
         <v>1286.377318020765</v>
@@ -5150,22 +5150,22 @@
         <v>1230.148920794168</v>
       </c>
       <c r="T12" t="n">
-        <v>1057.899850441144</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U12" t="n">
-        <v>1057.899850441144</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="V12" t="n">
-        <v>1057.899850441144</v>
+        <v>835.3598488122116</v>
       </c>
       <c r="W12" t="n">
-        <v>1057.899850441144</v>
+        <v>605.2426029454984</v>
       </c>
       <c r="X12" t="n">
-        <v>1057.899850441144</v>
+        <v>605.2426029454984</v>
       </c>
       <c r="Y12" t="n">
-        <v>878.5856335166516</v>
+        <v>425.9283860210057</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1083.058901996875</v>
+        <v>447.2717913190975</v>
       </c>
       <c r="C13" t="n">
-        <v>912.8537840628646</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="D13" t="n">
-        <v>757.2206709653794</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="E13" t="n">
-        <v>601.6618588245819</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="F13" t="n">
-        <v>444.3359240375548</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="G13" t="n">
         <v>277.0666733850867</v>
@@ -5199,52 +5199,52 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J13" t="n">
-        <v>26.86521263182356</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K13" t="n">
-        <v>220.83960264071</v>
+        <v>94.45082770646684</v>
       </c>
       <c r="L13" t="n">
-        <v>330.4759616548284</v>
+        <v>402.0782259443777</v>
       </c>
       <c r="M13" t="n">
-        <v>392.3775947287153</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N13" t="n">
-        <v>723.270019058511</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O13" t="n">
-        <v>1022.402219330328</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P13" t="n">
-        <v>1259.015622802646</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q13" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R13" t="n">
-        <v>1343.260631591178</v>
+        <v>1324.575922292923</v>
       </c>
       <c r="S13" t="n">
-        <v>1343.260631591178</v>
+        <v>1138.922273262578</v>
       </c>
       <c r="T13" t="n">
-        <v>1343.260631591178</v>
+        <v>1138.922273262578</v>
       </c>
       <c r="U13" t="n">
-        <v>1343.260631591178</v>
+        <v>1138.922273262578</v>
       </c>
       <c r="V13" t="n">
-        <v>1343.260631591178</v>
+        <v>1138.922273262578</v>
       </c>
       <c r="W13" t="n">
-        <v>1343.260631591178</v>
+        <v>855.5918711937554</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.260631591178</v>
+        <v>855.5918711937554</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.266920688177</v>
+        <v>632.4798100103988</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1004.053401391386</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="C14" t="n">
-        <v>1004.053401391386</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="D14" t="n">
-        <v>1004.053401391386</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="E14" t="n">
-        <v>705.2796730314085</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="F14" t="n">
-        <v>366.072442831616</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G14" t="n">
         <v>26.86521263182356</v>
@@ -5305,25 +5305,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S14" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T14" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U14" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="V14" t="n">
-        <v>1343.260631591178</v>
+        <v>673.678640668106</v>
       </c>
       <c r="W14" t="n">
-        <v>1343.260631591178</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="X14" t="n">
-        <v>1343.260631591178</v>
+        <v>334.4714104683136</v>
       </c>
       <c r="Y14" t="n">
-        <v>1004.053401391386</v>
+        <v>334.4714104683136</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>687.3718561241282</v>
+        <v>432.8510826287403</v>
       </c>
       <c r="C15" t="n">
-        <v>536.7176256842204</v>
+        <v>282.1968521888325</v>
       </c>
       <c r="D15" t="n">
-        <v>406.6286583057008</v>
+        <v>282.1968521888325</v>
       </c>
       <c r="E15" t="n">
-        <v>270.1821674165885</v>
+        <v>145.7503612997203</v>
       </c>
       <c r="F15" t="n">
         <v>145.7503612997203</v>
@@ -5360,22 +5360,22 @@
         <v>54.01717302604602</v>
       </c>
       <c r="K15" t="n">
-        <v>151.2248341115958</v>
+        <v>386.4741793448626</v>
       </c>
       <c r="L15" t="n">
-        <v>423.2112015457923</v>
+        <v>547.2915275957032</v>
       </c>
       <c r="M15" t="n">
-        <v>755.6682078646089</v>
+        <v>747.5397520521278</v>
       </c>
       <c r="N15" t="n">
-        <v>970.5820261604424</v>
+        <v>962.4535703479613</v>
       </c>
       <c r="O15" t="n">
-        <v>1152.743316199522</v>
+        <v>1144.614860387041</v>
       </c>
       <c r="P15" t="n">
-        <v>1286.377318020765</v>
+        <v>1278.248862208284</v>
       </c>
       <c r="Q15" t="n">
         <v>1343.260631591178</v>
@@ -5387,22 +5387,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T15" t="n">
-        <v>1343.260631591178</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U15" t="n">
-        <v>1133.274769142204</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="V15" t="n">
-        <v>1133.274769142204</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="W15" t="n">
-        <v>1133.274769142204</v>
+        <v>953.2687116441828</v>
       </c>
       <c r="X15" t="n">
-        <v>1018.482407489582</v>
+        <v>763.9616339941945</v>
       </c>
       <c r="Y15" t="n">
-        <v>839.1681905650895</v>
+        <v>584.6474170697016</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.384955059311</v>
+        <v>507.093511168804</v>
       </c>
       <c r="C16" t="n">
-        <v>560.384955059311</v>
+        <v>507.093511168804</v>
       </c>
       <c r="D16" t="n">
-        <v>560.384955059311</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="E16" t="n">
-        <v>560.384955059311</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="F16" t="n">
-        <v>444.3359240375548</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="G16" t="n">
-        <v>277.0666733850867</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H16" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I16" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J16" t="n">
-        <v>26.86521263182356</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K16" t="n">
-        <v>55.9845298980286</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L16" t="n">
-        <v>112.6859990751629</v>
+        <v>352.6697335806352</v>
       </c>
       <c r="M16" t="n">
-        <v>445.1430053939794</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N16" t="n">
-        <v>776.0354297237752</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O16" t="n">
-        <v>1075.167629995592</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P16" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q16" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R16" t="n">
-        <v>1343.260631591178</v>
+        <v>1332.578496209205</v>
       </c>
       <c r="S16" t="n">
-        <v>1343.260631591178</v>
+        <v>1146.924847178859</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.749375455781</v>
+        <v>915.413591043462</v>
       </c>
       <c r="U16" t="n">
-        <v>826.3643002384867</v>
+        <v>915.413591043462</v>
       </c>
       <c r="V16" t="n">
-        <v>560.384955059311</v>
+        <v>915.413591043462</v>
       </c>
       <c r="W16" t="n">
-        <v>560.384955059311</v>
+        <v>915.413591043462</v>
       </c>
       <c r="X16" t="n">
-        <v>560.384955059311</v>
+        <v>915.413591043462</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.384955059311</v>
+        <v>692.3015298601053</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70.06184741911432</v>
+        <v>366.072442831616</v>
       </c>
       <c r="C17" t="n">
-        <v>70.06184741911432</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D17" t="n">
-        <v>70.06184741911432</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E17" t="n">
         <v>26.86521263182356</v>
@@ -5518,10 +5518,10 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K17" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L17" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627734</v>
       </c>
       <c r="M17" t="n">
         <v>642.525089106458</v>
@@ -5545,22 +5545,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T17" t="n">
-        <v>1343.260631591178</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U17" t="n">
-        <v>1087.683538018492</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="V17" t="n">
-        <v>748.4763078186992</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="W17" t="n">
-        <v>409.2690776189067</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="X17" t="n">
-        <v>70.06184741911432</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="Y17" t="n">
-        <v>70.06184741911432</v>
+        <v>366.072442831616</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>491.3104439965695</v>
+        <v>240.2642878543438</v>
       </c>
       <c r="C18" t="n">
-        <v>491.3104439965695</v>
+        <v>240.2642878543438</v>
       </c>
       <c r="D18" t="n">
-        <v>491.3104439965695</v>
+        <v>240.2642878543438</v>
       </c>
       <c r="E18" t="n">
-        <v>356.0783491903871</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="F18" t="n">
-        <v>231.6465430735189</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H18" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I18" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J18" t="n">
-        <v>248.7521680057734</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K18" t="n">
-        <v>345.9598290913232</v>
+        <v>386.4741793448626</v>
       </c>
       <c r="L18" t="n">
-        <v>507.3798995068328</v>
+        <v>547.2915275957032</v>
       </c>
       <c r="M18" t="n">
-        <v>707.6281239632575</v>
+        <v>747.5397520521278</v>
       </c>
       <c r="N18" t="n">
-        <v>922.541942259091</v>
+        <v>962.4535703479613</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.70323229817</v>
+        <v>1144.614860387041</v>
       </c>
       <c r="P18" t="n">
-        <v>1238.337234119414</v>
+        <v>1278.248862208284</v>
       </c>
       <c r="Q18" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R18" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S18" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T18" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="U18" t="n">
-        <v>1133.274769142204</v>
+        <v>1020.163058345194</v>
       </c>
       <c r="V18" t="n">
-        <v>910.734767513271</v>
+        <v>990.7991627364993</v>
       </c>
       <c r="W18" t="n">
-        <v>680.6175216465579</v>
+        <v>760.6819168697862</v>
       </c>
       <c r="X18" t="n">
-        <v>491.3104439965695</v>
+        <v>571.3748392197979</v>
       </c>
       <c r="Y18" t="n">
-        <v>491.3104439965695</v>
+        <v>392.0606222953052</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.86521263182356</v>
+        <v>457.8749712187863</v>
       </c>
       <c r="C19" t="n">
-        <v>26.86521263182356</v>
+        <v>287.6698532847755</v>
       </c>
       <c r="D19" t="n">
-        <v>26.86521263182356</v>
+        <v>287.6698532847755</v>
       </c>
       <c r="E19" t="n">
-        <v>26.86521263182356</v>
+        <v>287.6698532847755</v>
       </c>
       <c r="F19" t="n">
-        <v>26.86521263182356</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="G19" t="n">
-        <v>26.86521263182356</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="H19" t="n">
-        <v>26.86521263182356</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="I19" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J19" t="n">
-        <v>26.86521263182356</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K19" t="n">
-        <v>220.83960264071</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L19" t="n">
-        <v>528.4670008786209</v>
+        <v>566.9332986870591</v>
       </c>
       <c r="M19" t="n">
-        <v>741.9778854118337</v>
+        <v>657.7328766233023</v>
       </c>
       <c r="N19" t="n">
-        <v>807.5150278470426</v>
+        <v>723.2700190585113</v>
       </c>
       <c r="O19" t="n">
-        <v>1106.647228118859</v>
+        <v>1022.402219330328</v>
       </c>
       <c r="P19" t="n">
-        <v>1343.260631591178</v>
+        <v>1259.015622802647</v>
       </c>
       <c r="Q19" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R19" t="n">
-        <v>1278.724940262859</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S19" t="n">
-        <v>1093.071291232513</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T19" t="n">
-        <v>861.560035097116</v>
+        <v>926.0957264254356</v>
       </c>
       <c r="U19" t="n">
-        <v>576.1749598798217</v>
+        <v>915.0673546191599</v>
       </c>
       <c r="V19" t="n">
-        <v>310.1956147006459</v>
+        <v>915.0673546191599</v>
       </c>
       <c r="W19" t="n">
-        <v>26.86521263182356</v>
+        <v>915.0673546191599</v>
       </c>
       <c r="X19" t="n">
-        <v>26.86521263182356</v>
+        <v>680.987032402143</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.86521263182356</v>
+        <v>457.8749712187863</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1343.260631591178</v>
+        <v>1087.683538018491</v>
       </c>
       <c r="C20" t="n">
-        <v>1004.053401391386</v>
+        <v>1087.683538018491</v>
       </c>
       <c r="D20" t="n">
-        <v>1004.053401391386</v>
+        <v>748.4763078186991</v>
       </c>
       <c r="E20" t="n">
-        <v>1004.053401391386</v>
+        <v>409.2690776189067</v>
       </c>
       <c r="F20" t="n">
-        <v>721.3683761785023</v>
+        <v>366.0724428316159</v>
       </c>
       <c r="G20" t="n">
-        <v>382.1611459787099</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H20" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I20" t="n">
         <v>26.86521263182356</v>
@@ -5758,16 +5758,16 @@
         <v>225.0743319754415</v>
       </c>
       <c r="L20" t="n">
-        <v>412.9225820627732</v>
+        <v>412.922582062773</v>
       </c>
       <c r="M20" t="n">
-        <v>642.5250891064579</v>
+        <v>642.5250891064577</v>
       </c>
       <c r="N20" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023813</v>
       </c>
       <c r="O20" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P20" t="n">
         <v>1253.948421109684</v>
@@ -5785,19 +5785,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U20" t="n">
-        <v>1343.260631591178</v>
+        <v>1087.683538018491</v>
       </c>
       <c r="V20" t="n">
-        <v>1343.260631591178</v>
+        <v>1087.683538018491</v>
       </c>
       <c r="W20" t="n">
-        <v>1343.260631591178</v>
+        <v>1087.683538018491</v>
       </c>
       <c r="X20" t="n">
-        <v>1343.260631591178</v>
+        <v>1087.683538018491</v>
       </c>
       <c r="Y20" t="n">
-        <v>1343.260631591178</v>
+        <v>1087.683538018491</v>
       </c>
     </row>
     <row r="21">
@@ -5846,37 +5846,37 @@
         <v>727.2042251146946</v>
       </c>
       <c r="O21" t="n">
-        <v>1059.661231433511</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P21" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q21" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R21" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S21" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T21" t="n">
-        <v>1057.899850441145</v>
+        <v>1171.011561238154</v>
       </c>
       <c r="U21" t="n">
-        <v>847.9139879921704</v>
+        <v>999.940089142912</v>
       </c>
       <c r="V21" t="n">
-        <v>625.3739863632375</v>
+        <v>777.4000875139791</v>
       </c>
       <c r="W21" t="n">
-        <v>395.2567404965243</v>
+        <v>547.282841647266</v>
       </c>
       <c r="X21" t="n">
-        <v>205.949662846536</v>
+        <v>357.9757639972777</v>
       </c>
       <c r="Y21" t="n">
-        <v>26.86521263182356</v>
+        <v>178.6615470727849</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>337.9779357940448</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C22" t="n">
-        <v>337.9779357940448</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D22" t="n">
-        <v>337.9779357940448</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E22" t="n">
-        <v>337.9779357940448</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F22" t="n">
-        <v>337.9779357940448</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G22" t="n">
-        <v>170.7086851415767</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3439184977485</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I22" t="n">
         <v>26.86521263182356</v>
@@ -5913,49 +5913,49 @@
         <v>65.33151044026181</v>
       </c>
       <c r="K22" t="n">
-        <v>259.3059004491482</v>
+        <v>94.45082770646684</v>
       </c>
       <c r="L22" t="n">
-        <v>566.9332986870591</v>
+        <v>402.0782259443777</v>
       </c>
       <c r="M22" t="n">
-        <v>685.1267398994518</v>
+        <v>463.9798590182645</v>
       </c>
       <c r="N22" t="n">
-        <v>1016.019164229248</v>
+        <v>794.8722833480603</v>
       </c>
       <c r="O22" t="n">
-        <v>1315.151364501064</v>
+        <v>1022.402219330328</v>
       </c>
       <c r="P22" t="n">
-        <v>1343.260631591178</v>
+        <v>1259.015622802646</v>
       </c>
       <c r="Q22" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R22" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S22" t="n">
-        <v>1077.986328330093</v>
+        <v>1264.878599415592</v>
       </c>
       <c r="T22" t="n">
-        <v>846.4750721946958</v>
+        <v>1033.367343280195</v>
       </c>
       <c r="U22" t="n">
-        <v>561.0899969774015</v>
+        <v>1033.367343280195</v>
       </c>
       <c r="V22" t="n">
-        <v>561.0899969774015</v>
+        <v>767.3879981010195</v>
       </c>
       <c r="W22" t="n">
-        <v>561.0899969774015</v>
+        <v>484.0575960321971</v>
       </c>
       <c r="X22" t="n">
-        <v>561.0899969774015</v>
+        <v>249.9772738151802</v>
       </c>
       <c r="Y22" t="n">
-        <v>337.9779357940448</v>
+        <v>26.86521263182356</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>1044.486903231201</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1044.486903231201</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1044.486903231201</v>
+      </c>
+      <c r="E23" t="n">
+        <v>705.2796730314085</v>
+      </c>
+      <c r="F23" t="n">
         <v>366.072442831616</v>
-      </c>
-      <c r="C23" t="n">
-        <v>366.072442831616</v>
-      </c>
-      <c r="D23" t="n">
-        <v>366.072442831616</v>
-      </c>
-      <c r="E23" t="n">
-        <v>366.072442831616</v>
-      </c>
-      <c r="F23" t="n">
-        <v>26.86521263182356</v>
       </c>
       <c r="G23" t="n">
         <v>26.86521263182356</v>
@@ -5989,22 +5989,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J23" t="n">
-        <v>92.99015204997838</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K23" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L23" t="n">
         <v>412.9225820627735</v>
       </c>
       <c r="M23" t="n">
-        <v>642.5250891064582</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N23" t="n">
-        <v>878.8417802023818</v>
+        <v>878.8417802023814</v>
       </c>
       <c r="O23" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P23" t="n">
         <v>1253.948421109684</v>
@@ -6025,16 +6025,16 @@
         <v>1343.260631591178</v>
       </c>
       <c r="V23" t="n">
-        <v>1044.486903231201</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W23" t="n">
-        <v>1044.486903231201</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X23" t="n">
-        <v>705.2796730314085</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.072442831616</v>
+        <v>1343.260631591178</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>205.949662846536</v>
+        <v>491.3104439965695</v>
       </c>
       <c r="C24" t="n">
-        <v>112.7613944056222</v>
+        <v>340.6562135566617</v>
       </c>
       <c r="D24" t="n">
-        <v>112.7613944056222</v>
+        <v>210.5672461781421</v>
       </c>
       <c r="E24" t="n">
-        <v>112.7613944056222</v>
+        <v>74.12075528902977</v>
       </c>
       <c r="F24" t="n">
-        <v>112.7613944056222</v>
+        <v>74.12075528902977</v>
       </c>
       <c r="G24" t="n">
-        <v>112.7613944056222</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H24" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I24" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J24" t="n">
-        <v>54.01717302604602</v>
+        <v>248.7521680057734</v>
       </c>
       <c r="K24" t="n">
-        <v>151.2248341115958</v>
+        <v>345.9598290913232</v>
       </c>
       <c r="L24" t="n">
-        <v>312.0421823624364</v>
+        <v>506.7771773421638</v>
       </c>
       <c r="M24" t="n">
-        <v>512.2904068188611</v>
+        <v>707.0254017985885</v>
       </c>
       <c r="N24" t="n">
-        <v>727.2042251146946</v>
+        <v>921.939220094422</v>
       </c>
       <c r="O24" t="n">
-        <v>909.3655151537739</v>
+        <v>1104.100510133501</v>
       </c>
       <c r="P24" t="n">
-        <v>1238.337234119414</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q24" t="n">
         <v>1295.220547689827</v>
@@ -6095,25 +6095,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S24" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T24" t="n">
-        <v>1057.899850441145</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U24" t="n">
-        <v>847.9139879921704</v>
+        <v>1133.274769142204</v>
       </c>
       <c r="V24" t="n">
-        <v>625.3739863632375</v>
+        <v>910.734767513271</v>
       </c>
       <c r="W24" t="n">
-        <v>395.2567404965243</v>
+        <v>680.6175216465579</v>
       </c>
       <c r="X24" t="n">
-        <v>205.949662846536</v>
+        <v>491.3104439965695</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.949662846536</v>
+        <v>491.3104439965695</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>351.4603980713188</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C25" t="n">
-        <v>351.4603980713188</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D25" t="n">
-        <v>351.4603980713188</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E25" t="n">
-        <v>351.4603980713188</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="F25" t="n">
-        <v>194.1344632842917</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="G25" t="n">
         <v>26.86521263182356</v>
@@ -6153,16 +6153,16 @@
         <v>55.9845298980286</v>
       </c>
       <c r="L25" t="n">
-        <v>144.1655971984302</v>
+        <v>363.6119281359395</v>
       </c>
       <c r="M25" t="n">
-        <v>476.6226035172468</v>
+        <v>696.0689344547561</v>
       </c>
       <c r="N25" t="n">
-        <v>807.5150278470426</v>
+        <v>1026.961358784552</v>
       </c>
       <c r="O25" t="n">
-        <v>1106.647228118859</v>
+        <v>1315.151364501064</v>
       </c>
       <c r="P25" t="n">
         <v>1343.260631591178</v>
@@ -6171,28 +6171,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R25" t="n">
-        <v>1343.260631591178</v>
+        <v>1316.18335241587</v>
       </c>
       <c r="S25" t="n">
-        <v>1157.606982560832</v>
+        <v>1316.18335241587</v>
       </c>
       <c r="T25" t="n">
-        <v>926.0957264254356</v>
+        <v>1084.672096280473</v>
       </c>
       <c r="U25" t="n">
-        <v>926.0957264254356</v>
+        <v>799.2870210631784</v>
       </c>
       <c r="V25" t="n">
-        <v>926.0957264254356</v>
+        <v>533.3076758840026</v>
       </c>
       <c r="W25" t="n">
-        <v>926.0957264254356</v>
+        <v>249.9772738151802</v>
       </c>
       <c r="X25" t="n">
-        <v>692.0154042084187</v>
+        <v>249.9772738151802</v>
       </c>
       <c r="Y25" t="n">
-        <v>468.903343025062</v>
+        <v>26.86521263182356</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="C26" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.486903231201</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="E26" t="n">
-        <v>705.2796730314085</v>
+        <v>366.072442831616</v>
       </c>
       <c r="F26" t="n">
         <v>366.072442831616</v>
@@ -6226,7 +6226,7 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J26" t="n">
-        <v>92.99015204997841</v>
+        <v>92.99015204997838</v>
       </c>
       <c r="K26" t="n">
         <v>225.0743319754415</v>
@@ -6235,13 +6235,13 @@
         <v>412.9225820627735</v>
       </c>
       <c r="M26" t="n">
-        <v>642.5250891064579</v>
+        <v>642.5250891064582</v>
       </c>
       <c r="N26" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023818</v>
       </c>
       <c r="O26" t="n">
-        <v>1093.321010641007</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P26" t="n">
         <v>1253.948421109684</v>
@@ -6253,25 +6253,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S26" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T26" t="n">
-        <v>1226.775891332113</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U26" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="V26" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="W26" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="X26" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="Y26" t="n">
-        <v>1226.775891332113</v>
+        <v>1044.486903231201</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>163.3117035209359</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="C27" t="n">
-        <v>163.3117035209359</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="D27" t="n">
-        <v>163.3117035209359</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="E27" t="n">
         <v>26.86521263182356</v>
@@ -6305,28 +6305,28 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J27" t="n">
-        <v>248.7521680057734</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K27" t="n">
-        <v>345.9598290913232</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L27" t="n">
-        <v>506.7771773421638</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M27" t="n">
-        <v>707.0254017985885</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N27" t="n">
-        <v>921.939220094422</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O27" t="n">
-        <v>1104.100510133501</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P27" t="n">
-        <v>1237.734511954745</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q27" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R27" t="n">
         <v>1343.260631591178</v>
@@ -6335,22 +6335,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T27" t="n">
-        <v>1343.260631591178</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U27" t="n">
-        <v>1133.274769142204</v>
+        <v>961.0256987891805</v>
       </c>
       <c r="V27" t="n">
-        <v>910.734767513271</v>
+        <v>738.4856971602476</v>
       </c>
       <c r="W27" t="n">
-        <v>683.7293325363783</v>
+        <v>508.3684512935345</v>
       </c>
       <c r="X27" t="n">
-        <v>494.42225488639</v>
+        <v>319.0613736435461</v>
       </c>
       <c r="Y27" t="n">
-        <v>315.1080379618972</v>
+        <v>139.7471567190534</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>417.5298274306807</v>
+        <v>300.5490364317593</v>
       </c>
       <c r="C28" t="n">
-        <v>417.5298274306807</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="D28" t="n">
-        <v>417.5298274306807</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="E28" t="n">
-        <v>297.6131691502166</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="F28" t="n">
-        <v>297.6131691502166</v>
+        <v>130.3439184977485</v>
       </c>
       <c r="G28" t="n">
         <v>130.3439184977485</v>
@@ -6384,19 +6384,19 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J28" t="n">
-        <v>26.86521263182356</v>
+        <v>65.33151044026181</v>
       </c>
       <c r="K28" t="n">
-        <v>220.83960264071</v>
+        <v>259.3059004491482</v>
       </c>
       <c r="L28" t="n">
-        <v>311.7221379453677</v>
+        <v>566.9332986870591</v>
       </c>
       <c r="M28" t="n">
-        <v>644.1791442641843</v>
+        <v>899.3903050058757</v>
       </c>
       <c r="N28" t="n">
-        <v>975.07156859398</v>
+        <v>964.9274474410846</v>
       </c>
       <c r="O28" t="n">
         <v>1022.402219330328</v>
@@ -6408,28 +6408,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R28" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="S28" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="T28" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="U28" t="n">
-        <v>1343.260631591178</v>
+        <v>978.2549021431439</v>
       </c>
       <c r="V28" t="n">
-        <v>1343.260631591178</v>
+        <v>712.2755569639681</v>
       </c>
       <c r="W28" t="n">
-        <v>1059.930229522356</v>
+        <v>712.2755569639681</v>
       </c>
       <c r="X28" t="n">
-        <v>825.8499073053387</v>
+        <v>485.7570551230606</v>
       </c>
       <c r="Y28" t="n">
-        <v>602.737846121982</v>
+        <v>485.7570551230606</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>667.671341885232</v>
       </c>
       <c r="D29" t="n">
-        <v>328.4641116854395</v>
+        <v>667.671341885232</v>
       </c>
       <c r="E29" t="n">
-        <v>328.4641116854395</v>
+        <v>667.671341885232</v>
       </c>
       <c r="F29" t="n">
-        <v>328.4641116854395</v>
+        <v>667.671341885232</v>
       </c>
       <c r="G29" t="n">
         <v>328.4641116854395</v>
@@ -6493,22 +6493,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T29" t="n">
-        <v>1129.370611126963</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U29" t="n">
-        <v>873.7935175542765</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="V29" t="n">
-        <v>873.7935175542765</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="W29" t="n">
-        <v>873.7935175542765</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="X29" t="n">
-        <v>873.7935175542765</v>
+        <v>1087.683538018492</v>
       </c>
       <c r="Y29" t="n">
-        <v>873.7935175542765</v>
+        <v>1006.878572085024</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.82497393005599</v>
+        <v>205.949662846536</v>
       </c>
       <c r="C30" t="n">
-        <v>26.86521263182356</v>
+        <v>205.949662846536</v>
       </c>
       <c r="D30" t="n">
-        <v>26.86521263182356</v>
+        <v>75.86069546801633</v>
       </c>
       <c r="E30" t="n">
-        <v>26.86521263182356</v>
+        <v>75.86069546801633</v>
       </c>
       <c r="F30" t="n">
-        <v>26.86521263182356</v>
+        <v>75.86069546801633</v>
       </c>
       <c r="G30" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H30" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I30" t="n">
         <v>26.86521263182356</v>
@@ -6545,25 +6545,25 @@
         <v>248.7521680057734</v>
       </c>
       <c r="K30" t="n">
-        <v>394.6026351573436</v>
+        <v>346.5625512559923</v>
       </c>
       <c r="L30" t="n">
-        <v>555.4199834081842</v>
+        <v>507.3798995068328</v>
       </c>
       <c r="M30" t="n">
-        <v>755.6682078646089</v>
+        <v>707.6281239632575</v>
       </c>
       <c r="N30" t="n">
-        <v>970.5820261604424</v>
+        <v>922.541942259091</v>
       </c>
       <c r="O30" t="n">
-        <v>1152.743316199522</v>
+        <v>1104.70323229817</v>
       </c>
       <c r="P30" t="n">
-        <v>1286.377318020765</v>
+        <v>1238.337234119414</v>
       </c>
       <c r="Q30" t="n">
-        <v>1343.260631591178</v>
+        <v>1295.220547689827</v>
       </c>
       <c r="R30" t="n">
         <v>1343.260631591178</v>
@@ -6575,19 +6575,19 @@
         <v>1057.899850441145</v>
       </c>
       <c r="U30" t="n">
-        <v>1057.899850441145</v>
+        <v>847.9139879921704</v>
       </c>
       <c r="V30" t="n">
-        <v>835.3598488122116</v>
+        <v>625.3739863632375</v>
       </c>
       <c r="W30" t="n">
-        <v>605.2426029454984</v>
+        <v>395.2567404965243</v>
       </c>
       <c r="X30" t="n">
-        <v>415.9355252955101</v>
+        <v>205.949662846536</v>
       </c>
       <c r="Y30" t="n">
-        <v>236.6213083710173</v>
+        <v>205.949662846536</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.6675376825824</v>
+        <v>570.8388231598233</v>
       </c>
       <c r="C31" t="n">
-        <v>702.4624197485716</v>
+        <v>400.6337052258125</v>
       </c>
       <c r="D31" t="n">
-        <v>546.8293066510864</v>
+        <v>245.0005921283272</v>
       </c>
       <c r="E31" t="n">
-        <v>391.2704945102889</v>
+        <v>89.44177998752974</v>
       </c>
       <c r="F31" t="n">
-        <v>233.9445597232619</v>
+        <v>89.44177998752974</v>
       </c>
       <c r="G31" t="n">
-        <v>66.67530907079376</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H31" t="n">
         <v>26.86521263182356</v>
@@ -6627,19 +6627,19 @@
         <v>220.83960264071</v>
       </c>
       <c r="L31" t="n">
-        <v>311.7221379453677</v>
+        <v>277.5410718178442</v>
       </c>
       <c r="M31" t="n">
-        <v>644.1791442641843</v>
+        <v>609.9980781366608</v>
       </c>
       <c r="N31" t="n">
-        <v>975.07156859398</v>
+        <v>940.8905024664565</v>
       </c>
       <c r="O31" t="n">
-        <v>1022.402219330328</v>
+        <v>1240.022702738273</v>
       </c>
       <c r="P31" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q31" t="n">
         <v>1343.260631591178</v>
@@ -6654,19 +6654,19 @@
         <v>1343.260631591178</v>
       </c>
       <c r="U31" t="n">
-        <v>1057.875556373884</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V31" t="n">
-        <v>1057.875556373884</v>
+        <v>1077.281286412002</v>
       </c>
       <c r="W31" t="n">
-        <v>1057.875556373884</v>
+        <v>793.95088434318</v>
       </c>
       <c r="X31" t="n">
-        <v>1057.875556373884</v>
+        <v>793.95088434318</v>
       </c>
       <c r="Y31" t="n">
-        <v>1057.875556373884</v>
+        <v>570.8388231598233</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>631.9915675596344</v>
+        <v>450.9561507273781</v>
       </c>
       <c r="C32" t="n">
-        <v>631.9915675596344</v>
+        <v>419.7694771248863</v>
       </c>
       <c r="D32" t="n">
-        <v>631.9915675596344</v>
+        <v>80.56224692509389</v>
       </c>
       <c r="E32" t="n">
-        <v>631.9915675596344</v>
+        <v>80.56224692509389</v>
       </c>
       <c r="F32" t="n">
-        <v>631.9915675596344</v>
+        <v>80.56224692509389</v>
       </c>
       <c r="G32" t="n">
-        <v>382.1611459787099</v>
+        <v>80.56224692509389</v>
       </c>
       <c r="H32" t="n">
         <v>80.56224692509389</v>
@@ -6727,25 +6727,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S32" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T32" t="n">
-        <v>1226.775891332113</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U32" t="n">
-        <v>971.1987977594268</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="V32" t="n">
-        <v>631.9915675596344</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="W32" t="n">
-        <v>631.9915675596344</v>
+        <v>790.1633809271706</v>
       </c>
       <c r="X32" t="n">
-        <v>631.9915675596344</v>
+        <v>450.9561507273781</v>
       </c>
       <c r="Y32" t="n">
-        <v>631.9915675596344</v>
+        <v>450.9561507273781</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.7613944056222</v>
+        <v>370.3532552328635</v>
       </c>
       <c r="C33" t="n">
-        <v>112.7613944056222</v>
+        <v>370.3532552328635</v>
       </c>
       <c r="D33" t="n">
-        <v>112.7613944056222</v>
+        <v>240.2642878543438</v>
       </c>
       <c r="E33" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="F33" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="G33" t="n">
-        <v>112.7613944056222</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H33" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I33" t="n">
         <v>26.86521263182356</v>
@@ -6782,49 +6782,49 @@
         <v>248.7521680057734</v>
       </c>
       <c r="K33" t="n">
-        <v>346.5625512559923</v>
+        <v>345.9598290913232</v>
       </c>
       <c r="L33" t="n">
-        <v>507.3798995068328</v>
+        <v>506.7771773421638</v>
       </c>
       <c r="M33" t="n">
-        <v>707.6281239632575</v>
+        <v>707.0254017985885</v>
       </c>
       <c r="N33" t="n">
-        <v>922.541942259091</v>
+        <v>921.939220094422</v>
       </c>
       <c r="O33" t="n">
-        <v>1104.70323229817</v>
+        <v>1104.100510133501</v>
       </c>
       <c r="P33" t="n">
-        <v>1238.337234119414</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q33" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R33" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S33" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T33" t="n">
-        <v>1171.011561238155</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U33" t="n">
-        <v>961.0256987891805</v>
+        <v>847.9139879921704</v>
       </c>
       <c r="V33" t="n">
-        <v>738.4856971602476</v>
+        <v>847.9139879921704</v>
       </c>
       <c r="W33" t="n">
-        <v>508.3684512935345</v>
+        <v>847.9139879921704</v>
       </c>
       <c r="X33" t="n">
-        <v>319.0613736435461</v>
+        <v>701.4638065983177</v>
       </c>
       <c r="Y33" t="n">
-        <v>139.7471567190534</v>
+        <v>522.1495896738248</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>194.8648326781289</v>
+        <v>343.7930854531725</v>
       </c>
       <c r="C34" t="n">
-        <v>194.8648326781289</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="D34" t="n">
-        <v>39.23171958064361</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="E34" t="n">
-        <v>26.86521263182356</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="F34" t="n">
-        <v>26.86521263182356</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="G34" t="n">
-        <v>26.86521263182356</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="H34" t="n">
         <v>26.86521263182356</v>
@@ -6864,16 +6864,16 @@
         <v>259.3059004491482</v>
       </c>
       <c r="L34" t="n">
-        <v>566.9332986870591</v>
+        <v>520.2262743275728</v>
       </c>
       <c r="M34" t="n">
-        <v>657.7328766233023</v>
+        <v>852.6832806463893</v>
       </c>
       <c r="N34" t="n">
-        <v>723.2700190585113</v>
+        <v>1183.575704976185</v>
       </c>
       <c r="O34" t="n">
-        <v>1022.402219330328</v>
+        <v>1230.906355712533</v>
       </c>
       <c r="P34" t="n">
         <v>1259.015622802647</v>
@@ -6882,28 +6882,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R34" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S34" t="n">
-        <v>1263.639977360438</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T34" t="n">
-        <v>1263.639977360438</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="U34" t="n">
-        <v>978.2549021431439</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="V34" t="n">
-        <v>712.2755569639681</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="W34" t="n">
-        <v>428.9451548951458</v>
+        <v>874.27658049201</v>
       </c>
       <c r="X34" t="n">
-        <v>194.8648326781289</v>
+        <v>640.1962582749931</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.8648326781289</v>
+        <v>417.0841970916364</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>409.2690776189067</v>
+        <v>631.9915675596344</v>
       </c>
       <c r="C35" t="n">
-        <v>409.2690776189067</v>
+        <v>631.9915675596344</v>
       </c>
       <c r="D35" t="n">
-        <v>409.2690776189067</v>
+        <v>631.9915675596344</v>
       </c>
       <c r="E35" t="n">
-        <v>80.56224692509389</v>
+        <v>631.9915675596344</v>
       </c>
       <c r="F35" t="n">
-        <v>80.56224692509389</v>
+        <v>631.9915675596344</v>
       </c>
       <c r="G35" t="n">
-        <v>80.56224692509389</v>
+        <v>292.784337359842</v>
       </c>
       <c r="H35" t="n">
-        <v>80.56224692509389</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I35" t="n">
         <v>26.86521263182356</v>
@@ -6940,19 +6940,19 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K35" t="n">
-        <v>225.0743319754415</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L35" t="n">
-        <v>412.9225820627732</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M35" t="n">
-        <v>642.5250891064579</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N35" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023814</v>
       </c>
       <c r="O35" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P35" t="n">
         <v>1253.948421109684</v>
@@ -6964,25 +6964,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S35" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T35" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="U35" t="n">
-        <v>1087.683538018492</v>
+        <v>971.1987977594268</v>
       </c>
       <c r="V35" t="n">
-        <v>748.4763078186992</v>
+        <v>971.1987977594268</v>
       </c>
       <c r="W35" t="n">
-        <v>409.2690776189067</v>
+        <v>971.1987977594268</v>
       </c>
       <c r="X35" t="n">
-        <v>409.2690776189067</v>
+        <v>631.9915675596344</v>
       </c>
       <c r="Y35" t="n">
-        <v>409.2690776189067</v>
+        <v>631.9915675596344</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>322.9095314012343</v>
+        <v>104.956357347795</v>
       </c>
       <c r="C36" t="n">
-        <v>172.2553009613266</v>
+        <v>104.956357347795</v>
       </c>
       <c r="D36" t="n">
-        <v>172.2553009613266</v>
+        <v>104.956357347795</v>
       </c>
       <c r="E36" t="n">
-        <v>35.80881007221426</v>
+        <v>104.956357347795</v>
       </c>
       <c r="F36" t="n">
-        <v>35.80881007221426</v>
+        <v>104.956357347795</v>
       </c>
       <c r="G36" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H36" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I36" t="n">
         <v>26.86521263182356</v>
@@ -7022,46 +7022,46 @@
         <v>345.9598290913232</v>
       </c>
       <c r="L36" t="n">
-        <v>507.3798995068328</v>
+        <v>555.4199834081842</v>
       </c>
       <c r="M36" t="n">
-        <v>707.6281239632575</v>
+        <v>755.6682078646089</v>
       </c>
       <c r="N36" t="n">
-        <v>922.541942259091</v>
+        <v>970.5820261604424</v>
       </c>
       <c r="O36" t="n">
-        <v>1104.70323229817</v>
+        <v>1152.743316199522</v>
       </c>
       <c r="P36" t="n">
-        <v>1238.337234119414</v>
+        <v>1286.377318020765</v>
       </c>
       <c r="Q36" t="n">
-        <v>1295.220547689827</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="R36" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="S36" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T36" t="n">
-        <v>1295.984407912323</v>
+        <v>1057.899850441145</v>
       </c>
       <c r="U36" t="n">
-        <v>1295.984407912323</v>
+        <v>847.9139879921704</v>
       </c>
       <c r="V36" t="n">
-        <v>1073.44440628339</v>
+        <v>625.3739863632375</v>
       </c>
       <c r="W36" t="n">
-        <v>843.3271604166769</v>
+        <v>625.3739863632375</v>
       </c>
       <c r="X36" t="n">
-        <v>654.0200827666885</v>
+        <v>436.0669087132491</v>
       </c>
       <c r="Y36" t="n">
-        <v>474.7058658421957</v>
+        <v>256.7526917887564</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3439184977485</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3439184977485</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3439184977485</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3439184977485</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3439184977485</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3439184977485</v>
+        <v>277.0666733850867</v>
       </c>
       <c r="H37" t="n">
         <v>130.3439184977485</v>
@@ -7122,25 +7122,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S37" t="n">
-        <v>1343.260631591178</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="T37" t="n">
-        <v>1199.119063180058</v>
+        <v>1157.606982560832</v>
       </c>
       <c r="U37" t="n">
-        <v>913.7339879627635</v>
+        <v>993.645671285553</v>
       </c>
       <c r="V37" t="n">
-        <v>647.7546427835878</v>
+        <v>727.6663261063773</v>
       </c>
       <c r="W37" t="n">
-        <v>364.4242407147654</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3439184977485</v>
+        <v>444.3359240375548</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3439184977485</v>
+        <v>444.3359240375548</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="C38" t="n">
-        <v>1044.486903231201</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="D38" t="n">
-        <v>705.2796730314085</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="E38" t="n">
-        <v>366.072442831616</v>
+        <v>1004.053401391386</v>
       </c>
       <c r="F38" t="n">
-        <v>26.86521263182356</v>
+        <v>664.8461711915932</v>
       </c>
       <c r="G38" t="n">
-        <v>26.86521263182356</v>
+        <v>325.6389409918007</v>
       </c>
       <c r="H38" t="n">
         <v>26.86521263182356</v>
@@ -7174,22 +7174,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J38" t="n">
-        <v>92.99015204997838</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K38" t="n">
         <v>225.0743319754415</v>
       </c>
       <c r="L38" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627732</v>
       </c>
       <c r="M38" t="n">
-        <v>642.5250891064582</v>
+        <v>642.5250891064579</v>
       </c>
       <c r="N38" t="n">
-        <v>878.8417802023818</v>
+        <v>878.8417802023816</v>
       </c>
       <c r="O38" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P38" t="n">
         <v>1253.948421109684</v>
@@ -7201,25 +7201,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="X38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Y38" t="n">
-        <v>1226.775891332113</v>
+        <v>1343.260631591178</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>172.2553009613266</v>
+        <v>387.2437623770545</v>
       </c>
       <c r="C39" t="n">
-        <v>172.2553009613266</v>
+        <v>387.2437623770545</v>
       </c>
       <c r="D39" t="n">
-        <v>172.2553009613266</v>
+        <v>387.2437623770545</v>
       </c>
       <c r="E39" t="n">
-        <v>35.80881007221426</v>
+        <v>250.7972714879422</v>
       </c>
       <c r="F39" t="n">
-        <v>35.80881007221426</v>
+        <v>222.7029456331282</v>
       </c>
       <c r="G39" t="n">
-        <v>35.80881007221426</v>
+        <v>103.8177969652315</v>
       </c>
       <c r="H39" t="n">
-        <v>35.80881007221426</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="I39" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J39" t="n">
-        <v>54.01717302604602</v>
+        <v>248.7521680057734</v>
       </c>
       <c r="K39" t="n">
-        <v>151.2248341115958</v>
+        <v>345.9598290913232</v>
       </c>
       <c r="L39" t="n">
-        <v>312.0421823624364</v>
+        <v>506.7771773421638</v>
       </c>
       <c r="M39" t="n">
-        <v>512.2904068188611</v>
+        <v>707.0254017985885</v>
       </c>
       <c r="N39" t="n">
-        <v>727.2042251146946</v>
+        <v>921.939220094422</v>
       </c>
       <c r="O39" t="n">
-        <v>909.3655151537739</v>
+        <v>1104.100510133501</v>
       </c>
       <c r="P39" t="n">
-        <v>1042.999516975018</v>
+        <v>1237.734511954745</v>
       </c>
       <c r="Q39" t="n">
         <v>1295.220547689827</v>
@@ -7283,22 +7283,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T39" t="n">
-        <v>1343.260631591178</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="U39" t="n">
-        <v>1133.274769142204</v>
+        <v>1171.011561238155</v>
       </c>
       <c r="V39" t="n">
-        <v>910.734767513271</v>
+        <v>948.4715596092217</v>
       </c>
       <c r="W39" t="n">
-        <v>680.6175216465579</v>
+        <v>718.3543137425086</v>
       </c>
       <c r="X39" t="n">
-        <v>491.3104439965695</v>
+        <v>718.3543137425086</v>
       </c>
       <c r="Y39" t="n">
-        <v>311.9962270720767</v>
+        <v>539.0400968180159</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.8947361783523</v>
+        <v>53.94249180713197</v>
       </c>
       <c r="C40" t="n">
-        <v>599.8947361783523</v>
+        <v>53.94249180713197</v>
       </c>
       <c r="D40" t="n">
-        <v>599.8947361783523</v>
+        <v>53.94249180713197</v>
       </c>
       <c r="E40" t="n">
-        <v>444.3359240375548</v>
+        <v>53.94249180713197</v>
       </c>
       <c r="F40" t="n">
-        <v>444.3359240375548</v>
+        <v>53.94249180713197</v>
       </c>
       <c r="G40" t="n">
-        <v>277.0666733850867</v>
+        <v>53.94249180713197</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3439184977485</v>
+        <v>53.94249180713197</v>
       </c>
       <c r="I40" t="n">
         <v>26.86521263182356</v>
@@ -7335,16 +7335,16 @@
         <v>65.33151044026181</v>
       </c>
       <c r="K40" t="n">
-        <v>259.3059004491482</v>
+        <v>94.45082770646684</v>
       </c>
       <c r="L40" t="n">
-        <v>566.9332986870591</v>
+        <v>402.0782259443777</v>
       </c>
       <c r="M40" t="n">
-        <v>899.3903050058757</v>
+        <v>685.1267398994518</v>
       </c>
       <c r="N40" t="n">
-        <v>1230.282729335671</v>
+        <v>1016.019164229248</v>
       </c>
       <c r="O40" t="n">
         <v>1315.151364501064</v>
@@ -7356,28 +7356,28 @@
         <v>1343.260631591178</v>
       </c>
       <c r="R40" t="n">
-        <v>1263.639977360438</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="S40" t="n">
-        <v>1077.986328330093</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T40" t="n">
-        <v>1077.986328330093</v>
+        <v>1111.749375455781</v>
       </c>
       <c r="U40" t="n">
-        <v>833.9750583953693</v>
+        <v>826.3643002384867</v>
       </c>
       <c r="V40" t="n">
-        <v>833.9750583953693</v>
+        <v>560.384955059311</v>
       </c>
       <c r="W40" t="n">
-        <v>833.9750583953693</v>
+        <v>277.0545529904886</v>
       </c>
       <c r="X40" t="n">
-        <v>599.8947361783523</v>
+        <v>277.0545529904886</v>
       </c>
       <c r="Y40" t="n">
-        <v>599.8947361783523</v>
+        <v>53.94249180713197</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1343.260631591178</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="C41" t="n">
-        <v>1044.486903231201</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="D41" t="n">
         <v>705.2796730314085</v>
       </c>
       <c r="E41" t="n">
+        <v>705.2796730314085</v>
+      </c>
+      <c r="F41" t="n">
         <v>366.072442831616</v>
-      </c>
-      <c r="F41" t="n">
-        <v>26.86521263182356</v>
       </c>
       <c r="G41" t="n">
         <v>26.86521263182356</v>
@@ -7414,19 +7414,19 @@
         <v>92.99015204997841</v>
       </c>
       <c r="K41" t="n">
-        <v>225.0743319754416</v>
+        <v>225.0743319754415</v>
       </c>
       <c r="L41" t="n">
-        <v>412.9225820627735</v>
+        <v>412.9225820627734</v>
       </c>
       <c r="M41" t="n">
-        <v>642.525089106458</v>
+        <v>642.5250891064579</v>
       </c>
       <c r="N41" t="n">
-        <v>878.8417802023815</v>
+        <v>878.8417802023816</v>
       </c>
       <c r="O41" t="n">
-        <v>1093.321010641007</v>
+        <v>1093.321010641008</v>
       </c>
       <c r="P41" t="n">
         <v>1253.948421109684</v>
@@ -7441,22 +7441,22 @@
         <v>1343.260631591178</v>
       </c>
       <c r="T41" t="n">
-        <v>1343.260631591178</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="U41" t="n">
-        <v>1343.260631591178</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="V41" t="n">
-        <v>1343.260631591178</v>
+        <v>1129.370611126963</v>
       </c>
       <c r="W41" t="n">
-        <v>1343.260631591178</v>
+        <v>1044.486903231201</v>
       </c>
       <c r="X41" t="n">
-        <v>1343.260631591178</v>
+        <v>705.2796730314085</v>
       </c>
       <c r="Y41" t="n">
-        <v>1343.260631591178</v>
+        <v>705.2796730314085</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.3718561241282</v>
+        <v>773.2680378979268</v>
       </c>
       <c r="C42" t="n">
-        <v>536.7176256842204</v>
+        <v>622.613807458019</v>
       </c>
       <c r="D42" t="n">
-        <v>406.6286583057008</v>
+        <v>492.5248400794994</v>
       </c>
       <c r="E42" t="n">
-        <v>270.1821674165885</v>
+        <v>356.0783491903871</v>
       </c>
       <c r="F42" t="n">
-        <v>145.7503612997203</v>
+        <v>231.6465430735189</v>
       </c>
       <c r="G42" t="n">
-        <v>26.86521263182356</v>
+        <v>112.7613944056222</v>
       </c>
       <c r="H42" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I42" t="n">
         <v>26.86521263182356</v>
       </c>
       <c r="J42" t="n">
-        <v>62.14562883852699</v>
+        <v>54.01717302604602</v>
       </c>
       <c r="K42" t="n">
-        <v>394.6026351573436</v>
+        <v>151.2248341115958</v>
       </c>
       <c r="L42" t="n">
-        <v>555.4199834081842</v>
+        <v>312.0421823624364</v>
       </c>
       <c r="M42" t="n">
-        <v>755.6682078646089</v>
+        <v>512.2904068188611</v>
       </c>
       <c r="N42" t="n">
-        <v>970.5820261604424</v>
+        <v>727.2042251146946</v>
       </c>
       <c r="O42" t="n">
-        <v>1152.743316199522</v>
+        <v>909.3655151537739</v>
       </c>
       <c r="P42" t="n">
-        <v>1286.377318020765</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q42" t="n">
         <v>1343.260631591178</v>
@@ -7517,25 +7517,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S42" t="n">
-        <v>1230.148920794168</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T42" t="n">
-        <v>1057.899850441145</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="U42" t="n">
-        <v>1018.482407489582</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="V42" t="n">
-        <v>1018.482407489582</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="W42" t="n">
-        <v>1018.482407489582</v>
+        <v>1293.685666913369</v>
       </c>
       <c r="X42" t="n">
-        <v>1018.482407489582</v>
+        <v>1104.378589263381</v>
       </c>
       <c r="Y42" t="n">
-        <v>839.1681905650895</v>
+        <v>925.0643723388881</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>706.4196186903554</v>
+        <v>654.9850106914553</v>
       </c>
       <c r="C43" t="n">
-        <v>706.4196186903554</v>
+        <v>484.7798927574445</v>
       </c>
       <c r="D43" t="n">
-        <v>550.7865055928701</v>
+        <v>329.1467796599592</v>
       </c>
       <c r="E43" t="n">
-        <v>395.2276934520726</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="F43" t="n">
-        <v>237.9017586650455</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="G43" t="n">
-        <v>70.6325080125774</v>
+        <v>173.5879675191617</v>
       </c>
       <c r="H43" t="n">
         <v>26.86521263182356</v>
@@ -7569,22 +7569,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J43" t="n">
-        <v>65.33151044026181</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="K43" t="n">
-        <v>94.45082770646684</v>
+        <v>55.9845298980286</v>
       </c>
       <c r="L43" t="n">
-        <v>352.6697335806352</v>
+        <v>144.1655971984302</v>
       </c>
       <c r="M43" t="n">
-        <v>685.1267398994518</v>
+        <v>476.6226035172468</v>
       </c>
       <c r="N43" t="n">
-        <v>1016.019164229248</v>
+        <v>807.5150278470426</v>
       </c>
       <c r="O43" t="n">
-        <v>1315.151364501064</v>
+        <v>1106.647228118859</v>
       </c>
       <c r="P43" t="n">
         <v>1343.260631591178</v>
@@ -7596,25 +7596,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S43" t="n">
-        <v>1157.606982560832</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="T43" t="n">
-        <v>1157.606982560832</v>
+        <v>1125.578104600051</v>
       </c>
       <c r="U43" t="n">
-        <v>1157.606982560832</v>
+        <v>840.1930293827565</v>
       </c>
       <c r="V43" t="n">
-        <v>891.6276373816567</v>
+        <v>840.1930293827565</v>
       </c>
       <c r="W43" t="n">
-        <v>891.6276373816567</v>
+        <v>840.1930293827565</v>
       </c>
       <c r="X43" t="n">
-        <v>891.6276373816567</v>
+        <v>840.1930293827565</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.6276373816567</v>
+        <v>840.1930293827565</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>705.2796730314085</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.072442831616</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="D44" t="n">
-        <v>366.072442831616</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="E44" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="F44" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="G44" t="n">
-        <v>26.86521263182356</v>
+        <v>328.4641116854395</v>
       </c>
       <c r="H44" t="n">
         <v>26.86521263182356</v>
@@ -7648,22 +7648,22 @@
         <v>26.86521263182356</v>
       </c>
       <c r="J44" t="n">
-        <v>92.99015204997818</v>
+        <v>92.99015204997841</v>
       </c>
       <c r="K44" t="n">
-        <v>225.0743319754413</v>
+        <v>225.0743319754416</v>
       </c>
       <c r="L44" t="n">
-        <v>412.9225820627732</v>
+        <v>412.9225820627735</v>
       </c>
       <c r="M44" t="n">
-        <v>642.5250891064579</v>
+        <v>642.525089106458</v>
       </c>
       <c r="N44" t="n">
         <v>878.8417802023815</v>
       </c>
       <c r="O44" t="n">
-        <v>1093.321010641008</v>
+        <v>1093.321010641007</v>
       </c>
       <c r="P44" t="n">
         <v>1253.948421109684</v>
@@ -7675,25 +7675,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S44" t="n">
-        <v>1343.260631591178</v>
+        <v>1226.775891332113</v>
       </c>
       <c r="T44" t="n">
-        <v>1343.260631591178</v>
+        <v>1012.885870867898</v>
       </c>
       <c r="U44" t="n">
-        <v>1343.260631591178</v>
+        <v>757.3087772952119</v>
       </c>
       <c r="V44" t="n">
-        <v>1343.260631591178</v>
+        <v>757.3087772952119</v>
       </c>
       <c r="W44" t="n">
-        <v>1044.486903231201</v>
+        <v>757.3087772952119</v>
       </c>
       <c r="X44" t="n">
-        <v>705.2796730314085</v>
+        <v>667.671341885232</v>
       </c>
       <c r="Y44" t="n">
-        <v>705.2796730314085</v>
+        <v>667.671341885232</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>139.7471567190534</v>
+        <v>165.8977774507339</v>
       </c>
       <c r="C45" t="n">
-        <v>26.86521263182356</v>
+        <v>165.8977774507339</v>
       </c>
       <c r="D45" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="E45" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="F45" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="G45" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="H45" t="n">
-        <v>26.86521263182356</v>
+        <v>35.80881007221426</v>
       </c>
       <c r="I45" t="n">
         <v>26.86521263182356</v>
@@ -7745,7 +7745,7 @@
         <v>909.3655151537739</v>
       </c>
       <c r="P45" t="n">
-        <v>1238.337234119414</v>
+        <v>1042.999516975018</v>
       </c>
       <c r="Q45" t="n">
         <v>1295.220547689827</v>
@@ -7754,25 +7754,25 @@
         <v>1343.260631591178</v>
       </c>
       <c r="S45" t="n">
-        <v>1343.260631591178</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="T45" t="n">
-        <v>1171.011561238155</v>
+        <v>1230.148920794168</v>
       </c>
       <c r="U45" t="n">
-        <v>961.0256987891805</v>
+        <v>1020.163058345194</v>
       </c>
       <c r="V45" t="n">
-        <v>738.4856971602476</v>
+        <v>797.6230567162609</v>
       </c>
       <c r="W45" t="n">
-        <v>508.3684512935345</v>
+        <v>686.3154064661765</v>
       </c>
       <c r="X45" t="n">
-        <v>319.0613736435461</v>
+        <v>497.0083288161881</v>
       </c>
       <c r="Y45" t="n">
-        <v>139.7471567190534</v>
+        <v>317.6941118916953</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>508.5658091258856</v>
+        <v>746.743646007747</v>
       </c>
       <c r="C46" t="n">
-        <v>508.5658091258856</v>
+        <v>576.5385280737362</v>
       </c>
       <c r="D46" t="n">
-        <v>352.9326960284003</v>
+        <v>420.9054149762509</v>
       </c>
       <c r="E46" t="n">
-        <v>352.9326960284003</v>
+        <v>351.4603980713188</v>
       </c>
       <c r="F46" t="n">
-        <v>195.6067612413732</v>
+        <v>194.1344632842917</v>
       </c>
       <c r="G46" t="n">
-        <v>28.33751058890513</v>
+        <v>26.86521263182356</v>
       </c>
       <c r="H46" t="n">
         <v>26.86521263182356</v>
@@ -7809,49 +7809,49 @@
         <v>26.86521263182356</v>
       </c>
       <c r="K46" t="n">
-        <v>55.9845298980286</v>
+        <v>220.83960264071</v>
       </c>
       <c r="L46" t="n">
-        <v>363.6119281359395</v>
+        <v>528.4670008786209</v>
       </c>
       <c r="M46" t="n">
-        <v>600.8817311109204</v>
+        <v>590.3686339525077</v>
       </c>
       <c r="N46" t="n">
-        <v>931.7741554407162</v>
+        <v>807.5150278470426</v>
       </c>
       <c r="O46" t="n">
-        <v>1230.906355712533</v>
+        <v>1106.647228118859</v>
       </c>
       <c r="P46" t="n">
-        <v>1259.015622802647</v>
+        <v>1343.260631591178</v>
       </c>
       <c r="Q46" t="n">
         <v>1343.260631591178</v>
       </c>
       <c r="R46" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="S46" t="n">
-        <v>1343.260631591178</v>
+        <v>1263.639977360438</v>
       </c>
       <c r="T46" t="n">
-        <v>1343.260631591178</v>
+        <v>1032.128721225041</v>
       </c>
       <c r="U46" t="n">
-        <v>1057.875556373884</v>
+        <v>746.743646007747</v>
       </c>
       <c r="V46" t="n">
-        <v>791.8962111947079</v>
+        <v>746.743646007747</v>
       </c>
       <c r="W46" t="n">
-        <v>508.5658091258856</v>
+        <v>746.743646007747</v>
       </c>
       <c r="X46" t="n">
-        <v>508.5658091258856</v>
+        <v>746.743646007747</v>
       </c>
       <c r="Y46" t="n">
-        <v>508.5658091258856</v>
+        <v>746.743646007747</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>8.210561426748285</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>237.625601245724</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.1056697199643</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>118.7304929525081</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.61769019229865</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>53.46958569392343</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>223.380687758775</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
@@ -8865,10 +8865,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>237.625601245724</v>
       </c>
       <c r="L15" t="n">
-        <v>112.2919385690464</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>133.5442241034261</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>8.21056142674847</v>
       </c>
       <c r="R15" t="n">
         <v>22.48846763156808</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.61769019229865</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>37.03269086298253</v>
       </c>
       <c r="M16" t="n">
         <v>273.2882558029593</v>
@@ -9102,10 +9102,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>157.3118441585263</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>237.625601245724</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6088102673424487</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8.21056142674847</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.61769019229865</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
         <v>166.520275497658</v>
@@ -9330,7 +9330,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>153.1406580397232</v>
+        <v>29.18984329530956</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.83904659602835</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>151.8138548280175</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>45.49697057036261</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>245.8361626724722</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>56.86041226111708</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
-        <v>254.3449995307766</v>
+        <v>182.0194800463834</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.83904659602835</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>197.31082539838</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.6088102673423066</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.79757386188626</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M25" t="n">
         <v>273.2882558029593</v>
@@ -9810,10 +9810,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>254.3449995307766</v>
+        <v>243.2922777577418</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>16.83904659602835</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6088102673423066</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>13.61769019229865</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>34.52632942174088</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
         <v>273.2882558029593</v>
       </c>
       <c r="N28" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>10.24658702312672</v>
       </c>
       <c r="P28" t="n">
         <v>210.6102387699041</v>
@@ -10193,7 +10193,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>49.1341475414347</v>
+        <v>0.6088102673424913</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.48846763156808</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L31" t="n">
-        <v>34.52632942174088</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>273.2882558029593</v>
@@ -10284,13 +10284,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>75.88753713413233</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6088102673424913</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>49.13414754143464</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
-        <v>253.4605344048249</v>
+        <v>206.2817219204953</v>
       </c>
       <c r="M34" t="n">
-        <v>29.18984329530956</v>
+        <v>273.2882558029593</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O34" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>101.9350150692923</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6088102673424487</v>
+        <v>49.13414754143471</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>22.48846763156808</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.3108253983801</v>
+        <v>0.6088102673423066</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -10983,19 +10983,19 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>273.2882558029593</v>
+        <v>223.380687758775</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>37.91715598893434</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>8.210561426748455</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>237.625601245724</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>245.8361626724724</v>
       </c>
       <c r="R42" t="n">
         <v>22.48846763156808</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>13.61769019229865</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>203.5529663606405</v>
+        <v>31.79757386188626</v>
       </c>
       <c r="M43" t="n">
         <v>273.2882558029593</v>
@@ -11235,7 +11235,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
         <v>16.83904659602835</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>197.31082539838</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>197.3108253983801</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11457,25 +11457,25 @@
         <v>13.61769019229865</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>177.1395655566608</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>268.0356382773604</v>
+        <v>153.1406580397231</v>
       </c>
       <c r="O46" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>16.83904659602835</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.6610921766435</v>
+        <v>60.6746403564884</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23275,7 +23275,7 @@
         <v>406.8576325470299</v>
       </c>
       <c r="H11" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>53.16006395033763</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>332.7385154084715</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>49.74292111847927</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y11" t="n">
-        <v>56.71064409081043</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>46.01395143401423</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>21.19882198212591</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>207.8860038244843</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.82444768843243</v>
+        <v>60.3265854831604</v>
       </c>
       <c r="S13" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>229.1961435740429</v>
@@ -23478,13 +23478,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.637166777552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>102.7716985582436</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>76.91033618752749</v>
+        <v>108.1953582271969</v>
       </c>
       <c r="G14" t="n">
-        <v>71.04247464923543</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H14" t="n">
         <v>298.5829100630798</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0213226369596</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>2.870583305722278</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>56.71064409081038</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T15" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>12.25065231001386</v>
       </c>
       <c r="X15" t="n">
-        <v>73.76956883739309</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>40.86413472761819</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.82444768843243</v>
+        <v>68.2491336602787</v>
       </c>
       <c r="S16" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>53.42858858430418</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>355.793021195203</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -23785,22 +23785,22 @@
         <v>115.319892856474</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V17" t="n">
-        <v>2.870583305722278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>31.4738867836009</v>
+        <v>283.2541738645908</v>
       </c>
       <c r="X17" t="n">
         <v>49.74292111847922</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>56.71064409081038</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -23819,19 +23819,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>1.20225212210056</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.6962971812177</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.5265796494932</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>191.244344960036</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23901,7 +23901,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5965581459434</v>
@@ -23910,7 +23910,7 @@
         <v>145.2555273384648</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4439188072657</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>14.93411327339619</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>271.6131363769085</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>53.42858858430418</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>45.77155959770448</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682644</v>
       </c>
       <c r="F20" t="n">
-        <v>132.8673191245676</v>
+        <v>369.9608256459042</v>
       </c>
       <c r="G20" t="n">
-        <v>71.04247464923543</v>
+        <v>71.04247464923549</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>211.7511202595727</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>38.52524645019437</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.227469042682543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,13 +24141,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H22" t="n">
-        <v>105.2944083610749</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.4439188072657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>106.1989006862123</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>100.7038071779055</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,13 +24214,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>62.74253173682638</v>
       </c>
       <c r="F23" t="n">
         <v>76.91033618752749</v>
       </c>
       <c r="G23" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H23" t="n">
         <v>298.5829100630798</v>
@@ -24265,16 +24265,16 @@
         <v>253.0213226369596</v>
       </c>
       <c r="V23" t="n">
-        <v>42.89975012713938</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>49.74292111847922</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>56.71064409081038</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24287,25 +24287,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>56.89130237900406</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6962971812177</v>
+        <v>70.91330995058358</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>76.18305849007386</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.08742300018248</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24375,10 +24375,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H25" t="n">
         <v>145.2555273384648</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.82444768843243</v>
+        <v>52.01794130487714</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,13 +24448,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>201.1206192755955</v>
+        <v>45.77155959770442</v>
       </c>
       <c r="E26" t="n">
         <v>62.74253173682638</v>
       </c>
       <c r="F26" t="n">
-        <v>76.91033618752749</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>71.04247464923543</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T26" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0213226369596</v>
+        <v>168.986451820155</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>38.52524645019425</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24530,7 +24530,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -24575,7 +24575,7 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T27" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>3.08069278092222</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>35.28573232173005</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H28" t="n">
         <v>145.2555273384648</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>183.7971125400421</v>
@@ -24657,19 +24657,19 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>7.486202172348243</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.4288443419289</v>
+        <v>60.6746403564884</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>45.77155959770442</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24694,7 +24694,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>115.319892856474</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.7511202595727</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>312.5288857144724</v>
       </c>
     </row>
     <row r="30">
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>91.76752445025861</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
@@ -24773,13 +24773,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6962971812177</v>
+        <v>78.04493063937369</v>
       </c>
       <c r="H30" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I30" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>103.6457564637943</v>
       </c>
       <c r="H31" t="n">
-        <v>105.8435318638843</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I31" t="n">
         <v>102.4439188072657</v>
@@ -24894,19 +24894,19 @@
         <v>229.1961435740429</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>358.3689396156317</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>45.77155959770442</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -24931,10 +24931,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>159.5255151819147</v>
+        <v>406.8576325470299</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>298.5829100630798</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T32" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0213226369596</v>
       </c>
       <c r="V32" t="n">
-        <v>2.870583305722278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>31.4738867836009</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>123.5624664062549</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>42.42832729357426</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>110.797737982309</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>141.7603821400577</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25092,7 +25092,7 @@
         <v>165.5965581459434</v>
       </c>
       <c r="H34" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>102.4439188072657</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S34" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.1961435740429</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5312244651214</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>73.13792724774612</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H35" t="n">
-        <v>298.5829100630798</v>
+        <v>35.3229765823416</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>53.16006395033763</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.7511202595727</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.870583305722278</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>31.4738867836009</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6962971812177</v>
+        <v>40.38606391240602</v>
       </c>
       <c r="H36" t="n">
         <v>76.18305849007386</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>123.7231182074267</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8860038244843</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5965581459434</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.2555273384648</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S37" t="n">
-        <v>183.7971125400421</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>86.49599084703382</v>
+        <v>229.1961435740429</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>120.2095263025948</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25393,10 +25393,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>208.7776482621953</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>45.77155959770442</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>62.74253173682638</v>
@@ -25405,10 +25405,10 @@
         <v>76.91033618752749</v>
       </c>
       <c r="G38" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H38" t="n">
-        <v>298.5829100630798</v>
+        <v>2.796918986702451</v>
       </c>
       <c r="I38" t="n">
         <v>53.16006395033763</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>115.319892856474</v>
       </c>
       <c r="T38" t="n">
         <v>211.7511202595727</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11.93485424690903</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>95.37410545943362</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6962971812177</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.854161465986799</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>111.9805936890401</v>
       </c>
       <c r="T39" t="n">
-        <v>170.5265796494932</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>75.63741242371034</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>78.82444768843243</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.96006722974528</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>93.45775540572129</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>45.77155959770442</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>62.74253173682638</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>76.91033618752749</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8576325470299</v>
+        <v>71.04247464923543</v>
       </c>
       <c r="H41" t="n">
         <v>298.5829100630798</v>
@@ -25681,7 +25681,7 @@
         <v>115.319892856474</v>
       </c>
       <c r="T41" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.0213226369596</v>
@@ -25690,10 +25690,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>283.2541738645908</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>49.74292111847922</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>76.18305849007386</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>111.9805936890401</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U42" t="n">
-        <v>168.8627353024378</v>
+        <v>207.8860038244843</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>178.7368583770153</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5965581459434</v>
       </c>
       <c r="H43" t="n">
-        <v>101.9259049115185</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>102.4439188072657</v>
@@ -25836,16 +25836,16 @@
         <v>78.82444768843243</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.7971125400421</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1961435740429</v>
+        <v>13.69044185282704</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5312244651214</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>60.6746403564884</v>
       </c>
       <c r="C44" t="n">
-        <v>53.42858858430418</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>62.74253173682638</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25882,7 +25882,7 @@
         <v>406.8576325470299</v>
       </c>
       <c r="H44" t="n">
-        <v>298.5829100630798</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>53.16006395033763</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>115.319892856474</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.7511202595727</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0213226369596</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>71.50305360501801</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>49.74292111847922</v>
+        <v>296.8170179603936</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>37.39456348915122</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -25964,7 +25964,7 @@
         <v>76.18305849007386</v>
       </c>
       <c r="I45" t="n">
-        <v>8.854161465986799</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>111.9805936890401</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.5265796494932</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>117.6214996604624</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>85.25265728350666</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>143.797952360954</v>
+        <v>145.2555273384648</v>
       </c>
       <c r="I46" t="n">
         <v>102.4439188072657</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.82444768843243</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>183.7971125400421</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1961435740429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>368063.5651732041</v>
+        <v>368063.5651732042</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>368063.5651732043</v>
+        <v>368063.5651732042</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>368063.5651732042</v>
+        <v>368063.5651732041</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575677.5082070944</v>
+        <v>575677.5082070945</v>
       </c>
       <c r="C2" t="n">
-        <v>575677.5082070944</v>
+        <v>575677.5082070945</v>
       </c>
       <c r="D2" t="n">
-        <v>575716.5756054388</v>
+        <v>575716.5756054387</v>
       </c>
       <c r="E2" t="n">
         <v>291558.8861055279</v>
       </c>
       <c r="F2" t="n">
+        <v>291558.886105528</v>
+      </c>
+      <c r="G2" t="n">
         <v>291558.8861055279</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>291558.8861055278</v>
       </c>
-      <c r="H2" t="n">
-        <v>291558.886105528</v>
-      </c>
       <c r="I2" t="n">
+        <v>291558.8861055278</v>
+      </c>
+      <c r="J2" t="n">
         <v>291558.8861055279</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>291558.8861055278</v>
-      </c>
-      <c r="K2" t="n">
-        <v>291558.886105528</v>
       </c>
       <c r="L2" t="n">
         <v>291558.8861055279</v>
       </c>
       <c r="M2" t="n">
-        <v>291558.8861055278</v>
+        <v>291558.8861055279</v>
       </c>
       <c r="N2" t="n">
-        <v>291558.886105528</v>
+        <v>291558.8861055279</v>
       </c>
       <c r="O2" t="n">
         <v>291558.8861055279</v>
@@ -26377,7 +26377,7 @@
         <v>412027.5189573163</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.704436726868153e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83686.48060876197</v>
+        <v>83686.48060876198</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>22128.59054587158</v>
       </c>
       <c r="F4" t="n">
-        <v>22128.59054587158</v>
+        <v>22128.59054587159</v>
       </c>
       <c r="G4" t="n">
         <v>22128.59054587159</v>
       </c>
       <c r="H4" t="n">
-        <v>22128.59054587159</v>
+        <v>22128.59054587158</v>
       </c>
       <c r="I4" t="n">
-        <v>22128.59054587159</v>
+        <v>22128.59054587158</v>
       </c>
       <c r="J4" t="n">
         <v>22128.59054587159</v>
@@ -26447,7 +26447,7 @@
         <v>22128.59054587159</v>
       </c>
       <c r="L4" t="n">
-        <v>22128.59054587159</v>
+        <v>22128.59054587158</v>
       </c>
       <c r="M4" t="n">
         <v>22128.59054587159</v>
@@ -26459,7 +26459,7 @@
         <v>22128.59054587159</v>
       </c>
       <c r="P4" t="n">
-        <v>22128.59054587158</v>
+        <v>22128.59054587159</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131327.6984199177</v>
+        <v>131323.3688521314</v>
       </c>
       <c r="C6" t="n">
-        <v>131327.6984199177</v>
+        <v>131323.3688521314</v>
       </c>
       <c r="D6" t="n">
-        <v>50536.01774208306</v>
+        <v>50531.81025991635</v>
       </c>
       <c r="E6" t="n">
-        <v>-174801.1072315931</v>
+        <v>-175693.3074934469</v>
       </c>
       <c r="F6" t="n">
-        <v>237226.4117257232</v>
+        <v>236334.2114638693</v>
       </c>
       <c r="G6" t="n">
-        <v>237226.4117257231</v>
+        <v>236334.2114638694</v>
       </c>
       <c r="H6" t="n">
-        <v>237226.4117257233</v>
+        <v>236334.2114638693</v>
       </c>
       <c r="I6" t="n">
-        <v>237226.4117257232</v>
+        <v>236334.2114638693</v>
       </c>
       <c r="J6" t="n">
-        <v>237226.411725723</v>
+        <v>236334.2114638694</v>
       </c>
       <c r="K6" t="n">
-        <v>237226.4117257233</v>
+        <v>236334.2114638693</v>
       </c>
       <c r="L6" t="n">
-        <v>237226.4117257232</v>
+        <v>236334.2114638694</v>
       </c>
       <c r="M6" t="n">
-        <v>153539.9311169611</v>
+        <v>152647.7308551075</v>
       </c>
       <c r="N6" t="n">
-        <v>237226.4117257233</v>
+        <v>236334.2114638694</v>
       </c>
       <c r="O6" t="n">
-        <v>237226.4117257232</v>
+        <v>236334.2114638694</v>
       </c>
       <c r="P6" t="n">
-        <v>237226.4117257232</v>
+        <v>236334.2114638694</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="F4" t="n">
         <v>335.8151578977945</v>
@@ -26807,7 +26807,7 @@
         <v>335.8151578977945</v>
       </c>
       <c r="H4" t="n">
-        <v>335.8151578977945</v>
+        <v>335.8151578977944</v>
       </c>
       <c r="I4" t="n">
         <v>335.8151578977945</v>
@@ -26971,7 +26971,7 @@
         <v>388.0499584175172</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.156300219329812e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>335.8151578977944</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27882,10 +27882,10 @@
         <v>65.01946517481471</v>
       </c>
       <c r="L8" t="n">
-        <v>56.4339664610682</v>
+        <v>56.43396646106821</v>
       </c>
       <c r="M8" t="n">
-        <v>42.00059636060509</v>
+        <v>42.0005963606051</v>
       </c>
       <c r="N8" t="n">
         <v>39.65094179247474</v>
@@ -27894,7 +27894,7 @@
         <v>46.19673452270656</v>
       </c>
       <c r="P8" t="n">
-        <v>62.08001639703511</v>
+        <v>62.08001639703512</v>
       </c>
       <c r="Q8" t="n">
         <v>78.24807792626756</v>
@@ -27952,19 +27952,19 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I9" t="n">
-        <v>53.38798903266146</v>
+        <v>53.38798903266147</v>
       </c>
       <c r="J9" t="n">
-        <v>51.43211845760855</v>
+        <v>51.43211845760856</v>
       </c>
       <c r="K9" t="n">
-        <v>36.59190862205906</v>
+        <v>36.59190862205907</v>
       </c>
       <c r="L9" t="n">
         <v>18.78854721703357</v>
       </c>
       <c r="M9" t="n">
-        <v>9.216293543178466</v>
+        <v>9.21629354317848</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -27973,7 +27973,7 @@
         <v>14.58875442338393</v>
       </c>
       <c r="P9" t="n">
-        <v>24.40218892352032</v>
+        <v>24.40218892352033</v>
       </c>
       <c r="Q9" t="n">
         <v>49.08744703089221</v>
@@ -28034,13 +28034,13 @@
         <v>123.4876772080058</v>
       </c>
       <c r="J10" t="n">
-        <v>63.09087915316801</v>
+        <v>63.09087915316802</v>
       </c>
       <c r="K10" t="n">
         <v>51.88619524178843</v>
       </c>
       <c r="L10" t="n">
-        <v>46.76134641422896</v>
+        <v>46.76134641422897</v>
       </c>
       <c r="M10" t="n">
         <v>47.16400664275908</v>
@@ -28049,10 +28049,10 @@
         <v>40.88357032611205</v>
       </c>
       <c r="O10" t="n">
-        <v>51.0994709558466</v>
+        <v>51.09947095584661</v>
       </c>
       <c r="P10" t="n">
-        <v>56.23986070246484</v>
+        <v>56.23986070246485</v>
       </c>
       <c r="Q10" t="n">
         <v>75.43459031707346</v>
@@ -31515,22 +31515,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6134955770126478</v>
+        <v>0.6134955770126477</v>
       </c>
       <c r="H8" t="n">
-        <v>6.282961578080781</v>
+        <v>6.28296157808078</v>
       </c>
       <c r="I8" t="n">
-        <v>23.65178823278013</v>
+        <v>23.65178823278012</v>
       </c>
       <c r="J8" t="n">
-        <v>52.06967022947726</v>
+        <v>52.06967022947725</v>
       </c>
       <c r="K8" t="n">
         <v>78.03893800442265</v>
       </c>
       <c r="L8" t="n">
-        <v>96.8142032694235</v>
+        <v>96.81420326942349</v>
       </c>
       <c r="M8" t="n">
         <v>107.7244552371222</v>
@@ -31542,7 +31542,7 @@
         <v>103.3671029013898</v>
       </c>
       <c r="P8" t="n">
-        <v>88.22143084389009</v>
+        <v>88.22143084389008</v>
       </c>
       <c r="Q8" t="n">
         <v>66.25062049212461</v>
@@ -31606,13 +31606,13 @@
         <v>31.01233887572479</v>
       </c>
       <c r="K9" t="n">
-        <v>53.00502671127429</v>
+        <v>53.00502671127428</v>
       </c>
       <c r="L9" t="n">
         <v>71.27179963988466</v>
       </c>
       <c r="M9" t="n">
-        <v>83.17082850613345</v>
+        <v>83.17082850613343</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -31630,7 +31630,7 @@
         <v>20.38023625294834</v>
       </c>
       <c r="S9" t="n">
-        <v>6.097082546710663</v>
+        <v>6.097082546710661</v>
       </c>
       <c r="T9" t="n">
         <v>1.323074111080779</v>
@@ -31688,7 +31688,7 @@
         <v>31.97242256905956</v>
       </c>
       <c r="L10" t="n">
-        <v>40.91369316857593</v>
+        <v>40.91369316857592</v>
       </c>
       <c r="M10" t="n">
         <v>43.13775292318419</v>
@@ -31697,10 +31697,10 @@
         <v>42.11203357628952</v>
       </c>
       <c r="O10" t="n">
-        <v>38.89727903785121</v>
+        <v>38.8972790378512</v>
       </c>
       <c r="P10" t="n">
-        <v>33.2833419294811</v>
+        <v>33.28334192948109</v>
       </c>
       <c r="Q10" t="n">
         <v>23.04366074206633</v>
@@ -31709,7 +31709,7 @@
         <v>12.3736777798567</v>
       </c>
       <c r="S10" t="n">
-        <v>4.795863385358934</v>
+        <v>4.795863385358933</v>
       </c>
       <c r="T10" t="n">
         <v>1.175824617171987</v>
@@ -34368,7 +34368,7 @@
         <v>83.79368178812219</v>
       </c>
       <c r="J44" t="n">
-        <v>184.4727060414922</v>
+        <v>184.4727060414924</v>
       </c>
       <c r="K44" t="n">
         <v>276.4767667403112</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.63678404717501</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K12" t="n">
-        <v>335.8151578977944</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L12" t="n">
         <v>162.44176590994</v>
       </c>
       <c r="M12" t="n">
-        <v>202.2709337943684</v>
+        <v>329.3766035143327</v>
       </c>
       <c r="N12" t="n">
-        <v>217.0846649452864</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="O12" t="n">
         <v>184.001303069777</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K13" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404549</v>
       </c>
       <c r="L13" t="n">
-        <v>110.743796983958</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M13" t="n">
-        <v>62.52690209483517</v>
+        <v>285.9075898536101</v>
       </c>
       <c r="N13" t="n">
         <v>334.2347720502987</v>
@@ -35585,10 +35585,10 @@
         <v>302.1537376482999</v>
       </c>
       <c r="P13" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>27.42622262042673</v>
       </c>
       <c r="K15" t="n">
-        <v>98.18955665207049</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="L15" t="n">
-        <v>274.7337044789863</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M15" t="n">
-        <v>335.8151578977945</v>
+        <v>202.2709337943684</v>
       </c>
       <c r="N15" t="n">
         <v>217.0846649452864</v>
@@ -35746,7 +35746,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.45789249536649</v>
+        <v>65.66845392211496</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K16" t="n">
-        <v>29.41345178404549</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L16" t="n">
-        <v>57.2742112900346</v>
+        <v>94.30690215301713</v>
       </c>
       <c r="M16" t="n">
         <v>335.8151578977945</v>
@@ -35822,10 +35822,10 @@
         <v>302.1537376482999</v>
       </c>
       <c r="P16" t="n">
-        <v>185.7050432394491</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>224.1282377514645</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K18" t="n">
-        <v>98.18955665207049</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="L18" t="n">
-        <v>163.0505761772824</v>
+        <v>162.44176590994</v>
       </c>
       <c r="M18" t="n">
         <v>202.2709337943684</v>
@@ -35983,10 +35983,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.45789249536649</v>
+        <v>65.66845392211496</v>
       </c>
       <c r="R18" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K19" t="n">
         <v>195.9337272817035</v>
@@ -36050,7 +36050,7 @@
         <v>310.7347456948595</v>
       </c>
       <c r="M19" t="n">
-        <v>215.6675601345584</v>
+        <v>91.71674539014472</v>
       </c>
       <c r="N19" t="n">
         <v>66.19913377293832</v>
@@ -36062,7 +36062,7 @@
         <v>239.0034378508269</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>85.09596847326392</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>217.0846649452864</v>
       </c>
       <c r="O21" t="n">
-        <v>335.8151578977945</v>
+        <v>184.001303069777</v>
       </c>
       <c r="P21" t="n">
-        <v>180.480810793841</v>
+        <v>134.9838402234784</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678387</v>
       </c>
       <c r="R21" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>38.85484627114975</v>
       </c>
       <c r="K22" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404549</v>
       </c>
       <c r="L22" t="n">
         <v>310.7347456948595</v>
       </c>
       <c r="M22" t="n">
-        <v>119.3873143559522</v>
+        <v>62.52690209483517</v>
       </c>
       <c r="N22" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O22" t="n">
-        <v>302.1537376482999</v>
+        <v>229.8282181639067</v>
       </c>
       <c r="P22" t="n">
-        <v>28.39319908092281</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>85.09596847326392</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>27.42622262042673</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K24" t="n">
         <v>98.18955665207049</v>
@@ -36454,10 +36454,10 @@
         <v>184.001303069777</v>
       </c>
       <c r="P24" t="n">
-        <v>332.2946656218584</v>
+        <v>134.9838402234784</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.45789249536649</v>
+        <v>58.0667027627088</v>
       </c>
       <c r="R24" t="n">
         <v>48.52533727409239</v>
@@ -36521,7 +36521,7 @@
         <v>29.41345178404549</v>
       </c>
       <c r="L25" t="n">
-        <v>89.07178515192086</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M25" t="n">
         <v>335.8151578977945</v>
@@ -36530,10 +36530,10 @@
         <v>334.2347720502987</v>
       </c>
       <c r="O25" t="n">
-        <v>302.1537376482999</v>
+        <v>291.101015875265</v>
       </c>
       <c r="P25" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>224.1282377514645</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K27" t="n">
         <v>98.18955665207049</v>
@@ -36694,10 +36694,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.0667027627088</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R27" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>38.85484627114975</v>
       </c>
       <c r="K28" t="n">
         <v>195.9337272817035</v>
       </c>
       <c r="L28" t="n">
-        <v>91.80054071177548</v>
+        <v>310.7347456948595</v>
       </c>
       <c r="M28" t="n">
         <v>335.8151578977945</v>
       </c>
       <c r="N28" t="n">
-        <v>334.2347720502987</v>
+        <v>66.19913377293832</v>
       </c>
       <c r="O28" t="n">
-        <v>47.80873811752325</v>
+        <v>58.05532514064997</v>
       </c>
       <c r="P28" t="n">
         <v>239.0034378508269</v>
@@ -36852,7 +36852,7 @@
         <v>162.2499095643197</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.2143540217107</v>
+        <v>90.21435402171099</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>224.1282377514645</v>
       </c>
       <c r="K30" t="n">
-        <v>147.3237041935052</v>
+        <v>98.79836691941298</v>
       </c>
       <c r="L30" t="n">
         <v>162.44176590994</v>
@@ -36934,7 +36934,7 @@
         <v>57.45789249536649</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>48.52533727409239</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>195.9337272817035</v>
       </c>
       <c r="L31" t="n">
-        <v>91.80054071177548</v>
+        <v>57.2742112900346</v>
       </c>
       <c r="M31" t="n">
         <v>335.8151578977945</v>
@@ -37004,13 +37004,13 @@
         <v>334.2347720502987</v>
       </c>
       <c r="O31" t="n">
-        <v>47.80873811752325</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P31" t="n">
-        <v>239.0034378508269</v>
+        <v>104.2807362150551</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>224.1282377514645</v>
       </c>
       <c r="K33" t="n">
-        <v>98.79836691941298</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L33" t="n">
         <v>162.44176590994</v>
@@ -37168,10 +37168,10 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.45789249536649</v>
+        <v>106.5920400368011</v>
       </c>
       <c r="R33" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>195.9337272817035</v>
       </c>
       <c r="L34" t="n">
-        <v>310.7347456948595</v>
+        <v>263.5559332105299</v>
       </c>
       <c r="M34" t="n">
-        <v>91.71674539014472</v>
+        <v>335.8151578977945</v>
       </c>
       <c r="N34" t="n">
-        <v>66.19913377293832</v>
+        <v>334.2347720502987</v>
       </c>
       <c r="O34" t="n">
-        <v>302.1537376482999</v>
+        <v>47.80873811752325</v>
       </c>
       <c r="P34" t="n">
-        <v>239.0034378508269</v>
+        <v>28.39319908092281</v>
       </c>
       <c r="Q34" t="n">
         <v>85.09596847326392</v>
@@ -37390,7 +37390,7 @@
         <v>98.18955665207049</v>
       </c>
       <c r="L36" t="n">
-        <v>163.0505761772824</v>
+        <v>211.5759134513747</v>
       </c>
       <c r="M36" t="n">
         <v>202.2709337943684</v>
@@ -37408,7 +37408,7 @@
         <v>57.45789249536649</v>
       </c>
       <c r="R36" t="n">
-        <v>48.52533727409239</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>27.42622262042673</v>
+        <v>224.1282377514645</v>
       </c>
       <c r="K39" t="n">
         <v>98.18955665207049</v>
@@ -37642,7 +37642,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q39" t="n">
-        <v>254.7687178937466</v>
+        <v>58.0667027627088</v>
       </c>
       <c r="R39" t="n">
         <v>48.52533727409239</v>
@@ -37703,19 +37703,19 @@
         <v>38.85484627114975</v>
       </c>
       <c r="K40" t="n">
-        <v>195.9337272817035</v>
+        <v>29.41345178404549</v>
       </c>
       <c r="L40" t="n">
         <v>310.7347456948595</v>
       </c>
       <c r="M40" t="n">
-        <v>335.8151578977945</v>
+        <v>285.9075898536101</v>
       </c>
       <c r="N40" t="n">
         <v>334.2347720502987</v>
       </c>
       <c r="O40" t="n">
-        <v>85.72589410645759</v>
+        <v>302.1537376482999</v>
       </c>
       <c r="P40" t="n">
         <v>28.39319908092281</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.63678404717518</v>
+        <v>27.42622262042673</v>
       </c>
       <c r="K42" t="n">
-        <v>335.8151578977945</v>
+        <v>98.18955665207049</v>
       </c>
       <c r="L42" t="n">
         <v>162.44176590994</v>
@@ -37879,7 +37879,7 @@
         <v>134.9838402234784</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.45789249536649</v>
+        <v>303.2940551678389</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>38.85484627114975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>29.41345178404549</v>
       </c>
       <c r="L43" t="n">
-        <v>260.8271776506751</v>
+        <v>89.07178515192086</v>
       </c>
       <c r="M43" t="n">
         <v>335.8151578977945</v>
@@ -37955,7 +37955,7 @@
         <v>302.1537376482999</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39319908092281</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>66.79286809914608</v>
+        <v>66.79286809914629</v>
       </c>
       <c r="K44" t="n">
         <v>133.4183635610738</v>
@@ -38113,10 +38113,10 @@
         <v>184.001303069777</v>
       </c>
       <c r="P45" t="n">
-        <v>332.2946656218584</v>
+        <v>134.9838402234784</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.45789249536649</v>
+        <v>254.7687178937466</v>
       </c>
       <c r="R45" t="n">
         <v>48.52533727409239</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>29.41345178404549</v>
+        <v>195.9337272817035</v>
       </c>
       <c r="L46" t="n">
         <v>310.7347456948595</v>
       </c>
       <c r="M46" t="n">
-        <v>239.6664676514959</v>
+        <v>62.52690209483517</v>
       </c>
       <c r="N46" t="n">
-        <v>334.2347720502987</v>
+        <v>219.3397918126615</v>
       </c>
       <c r="O46" t="n">
         <v>302.1537376482999</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39319908092281</v>
+        <v>239.0034378508269</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.09596847326392</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
